--- a/ta/指派結果/校估.xlsx
+++ b/ta/指派結果/校估.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\暫存\Traffic-Assignment-Model\ta\指派結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA65C52A-45E6-4057-A310-F82D8F2BBA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FA282-FE65-4032-8601-6F7AEF68784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2610" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{226A0F74-BF97-4CA0-AC08-8509B73241AA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
   </si>
   <si>
     <t>淡水出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB69EEE-758D-4994-98FD-EB06BA83BC9D}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1755,7 @@
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1811,7 +1807,7 @@
         <v>6392</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1837,7 +1833,7 @@
         <v>6676</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1863,7 +1859,7 @@
         <v>10225</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v>8126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1915,7 +1911,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1941,7 +1937,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1967,7 +1963,7 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1993,7 +1989,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2019,7 +2015,7 @@
         <v>6511</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -2045,7 +2041,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2071,7 +2067,7 @@
         <v>8155</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2097,7 +2093,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -2121,11 +2117,6 @@
       </c>
       <c r="H14">
         <v>8341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
